--- a/biology/Botanique/Olea_rosea/Olea_rosea.xlsx
+++ b/biology/Botanique/Olea_rosea/Olea_rosea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olea rosea Craib est un végétal appartenant au genre Olea. C'est une espèce qui pousse en Chine (en langue chinoise translittérée : hong hua mu xi lan).
 </t>
@@ -513,13 +525,88 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Appareil végétatif
-Ce sont des buissons ou de petits arbres de 2 à 15 m, polygamo-dioïques. Les petites branches sont cylindriques et longues, densément pubescentes. Le pétiole mesure 0,5 à 1,5 mm, densément poilus ou glabrescents. Le limbe de la feuille est lancéolé à étroitement ovale-elliptique, mesurant 7 à 17,5 cm par 2,6 à 6,5 cm, coriace et poilu à la face abaxiale, spécialement sur la nervure principale et les nervures primaires. La base est cunéiforme ou denticulée par endroits. L'apex est acuminé à caudato-acuminé. Les nervures primaires sont au nombre de 6 à 10 de chaque côté de la nervure centrale, légèrement déprimées sur la face adaxiale, distinctement saillantes sur la face abaxiale.
-Appareil reproducteur
-Les panicules floraux sont terminaux ou axillaires, densément poilus, ceux des fleurs staminées de 2,5 à 14 cm par 2.4 à 7 cm. Les panicules de fleurs bisexuées sont de 1,2 à 3(-10) cm, poilu. Le calice a des lobes mesurant 0,5 à 1 mm, polus. La corolle est blanc-jaune vers rose pâle, de 1,5 à 2,5 mm avec des lobes suborbiculaires de 0,5 à 1 mm. Le pédicelle des fleurs staminées mesure 0,5 à 2 mm. Le calice est identique à celui des fleurs staminées. La corolle est de 3 à 4 mm avec des lobes orbiculaire de 0,5 à 1 mm à 1,3 mm, émoussés.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des buissons ou de petits arbres de 2 à 15 m, polygamo-dioïques. Les petites branches sont cylindriques et longues, densément pubescentes. Le pétiole mesure 0,5 à 1,5 mm, densément poilus ou glabrescents. Le limbe de la feuille est lancéolé à étroitement ovale-elliptique, mesurant 7 à 17,5 cm par 2,6 à 6,5 cm, coriace et poilu à la face abaxiale, spécialement sur la nervure principale et les nervures primaires. La base est cunéiforme ou denticulée par endroits. L'apex est acuminé à caudato-acuminé. Les nervures primaires sont au nombre de 6 à 10 de chaque côté de la nervure centrale, légèrement déprimées sur la face adaxiale, distinctement saillantes sur la face abaxiale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Olea_rosea</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_rosea</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les panicules floraux sont terminaux ou axillaires, densément poilus, ceux des fleurs staminées de 2,5 à 14 cm par 2.4 à 7 cm. Les panicules de fleurs bisexuées sont de 1,2 à 3(-10) cm, poilu. Le calice a des lobes mesurant 0,5 à 1 mm, polus. La corolle est blanc-jaune vers rose pâle, de 1,5 à 2,5 mm avec des lobes suborbiculaires de 0,5 à 1 mm. Le pédicelle des fleurs staminées mesure 0,5 à 2 mm. Le calice est identique à celui des fleurs staminées. La corolle est de 3 à 4 mm avec des lobes orbiculaire de 0,5 à 1 mm à 1,3 mm, émoussés.
 Les fruits sont des drupes, rouges à pourpres à maturité, ellipsoïdes allongés de 1,2 à 1,7 cm par 5 à 6 mm, noircissant et se ridant quand ils sont secs. La floraison a lieu de février à septembre, la fructification de juillet à novembre.
-Répartition géographique
-Forêts humides et denses dans les vallées, de 800 à 1800 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Olea_rosea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_rosea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Forêts humides et denses dans les vallées, de 800 à 1800 m.
 Asie tempérée :
 Chine : Yunnan
 Asie tropicale :
@@ -527,64 +614,68 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Olea_rosea</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Olea_rosea</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Linociera menghaiensis H. T. Chang
 Olea densiflora H. L. Li.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Olea_rosea</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Olea_rosea</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbuste décoratif. Cette espèce intéresse les créateurs de bonsaïs[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbuste décoratif. Cette espèce intéresse les créateurs de bonsaïs.
 </t>
         </is>
       </c>
